--- a/Question_Set2/Software skills/Data Analytics in Google Cloud Platform (GCP).xlsx
+++ b/Question_Set2/Software skills/Data Analytics in Google Cloud Platform (GCP).xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are a data engineer at a health tech startup. The company wants to move its on-premises healthcare records to GCP. You are tasked with designing a managed, cloud-based data processing solution that can ingest, prepare, transform, and move this data to GCP storage solutions at scale.Which GCP service should you use?', 'ques_type': 2, 'options': ['Dataflow', 'Cloud Storage', 'BigQuery', 'Cloud Firestore'], 'score': 'Dataflow'}, {'title': 'You work for a manufacturing firm that has raw supply chain data which requires cleansing, transformation, and enrichment before analytics. The firm needs a GCP service that integrates seamlessly with BigQuery and provides an intuitive interface for transformations. Your task is to devise the required setup.Which GCP service should you use?', 'ques_type': 2, 'options': ['Dataprep', 'Cloud Pub/Sub', 'Cloud Functions', 'Dataproc'], 'score': 'Dataprep'}, {'title': 'You are a data analyst at a fintech startup that wants to gain insights from its growing transaction data. The company is already using GCP for its infrastructure, and you have been tasked with creating dashboards that visually represent financial trends.What should you do?', 'ques_type': 2, 'options': ['Utilize Looker Studio to create interactive dashboards and reports.', 'Run SQL queries on BigQuery and plot charts.', 'Implement Cloud Endpoints to fetch and display data.', 'Analyze the raw data using Dataproc.'], 'score': 'Utilize Looker Studio to create interactive dashboards and reports.'}, {'title': "You are the lead developer for a social media app with a global user base. The app's backend is experiencing high latency issues during peak times. You are tasked with choosing a GCP service that can handle millions of reads/writes per second with low latency.Which GCP service should you use?", 'ques_type': 2, 'options': ['Cloud Spanner', 'Cloud SQL', 'Cloud Bigtable', 'Cloud Storage'], 'score': 'Cloud Spanner'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a data engineer at a health tech startup. The company wants to move its on-premises healthcare records to GCP. You are tasked with designing a managed, cloud-based data processing solution that can ingest, prepare, transform, and move this data to GCP storage solutions at scale.Which GCP service should you use?",
+        "ques_type": 2,
+        "options": [
+            "Dataflow",
+            "Cloud Storage",
+            "BigQuery",
+            "Cloud Firestore"
+        ],
+        "score": "Dataflow"
+    },
+    {
+        "title": "You work for a manufacturing firm that has raw supply chain data which requires cleansing, transformation, and enrichment before analytics. The firm needs a GCP service that integrates seamlessly with BigQuery and provides an intuitive interface for transformations. Your task is to devise the required setup.Which GCP service should you use?",
+        "ques_type": 2,
+        "options": [
+            "Dataprep",
+            "Cloud Pub/Sub",
+            "Cloud Functions",
+            "Dataproc"
+        ],
+        "score": "Dataprep"
+    },
+    {
+        "title": "You are a data analyst at a fintech startup that wants to gain insights from its growing transaction data. The company is already using GCP for its infrastructure, and you have been tasked with creating dashboards that visually represent financial trends.What should you do?",
+        "ques_type": 2,
+        "options": [
+            "Utilize Looker Studio to create interactive dashboards and reports.",
+            "Run SQL queries on BigQuery and plot charts.",
+            "Implement Cloud Endpoints to fetch and display data.",
+            "Analyze the raw data using Dataproc."
+        ],
+        "score": "Utilize Looker Studio to create interactive dashboards and reports."
+    },
+    {
+        "title": "You are the lead developer for a social media app with a global user base. The app's backend is experiencing high latency issues during peak times. You are tasked with choosing a GCP service that can handle millions of reads/writes per second with low latency.Which GCP service should you use?",
+        "ques_type": 2,
+        "options": [
+            "Cloud Spanner",
+            "Cloud SQL",
+            "Cloud Bigtable",
+            "Cloud Storage"
+        ],
+        "score": "Cloud Spanner"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
